--- a/kbs verslagen/9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)/Tijdschrijfformulieren/KevinS-KBS-M1_Tijdschrijfformulier.xlsx
+++ b/kbs verslagen/9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)/Tijdschrijfformulieren/KevinS-KBS-M1_Tijdschrijfformulier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Windesheim\kbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kbsproject\kbs verslagen\9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)\Tijdschrijfformulieren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D2D680-1A0E-491E-B0F3-B5FDC759701D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E216E91-432D-4A07-A635-EA784DAF14C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,13 +380,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -821,12 +821,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -940,12 +940,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1056,12 +1056,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1172,12 +1172,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1288,12 +1288,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B26" zoomScale="370" zoomScalePageLayoutView="370" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,12 +1405,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1968,7 +1968,7 @@
       <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>43470</v>
       </c>
       <c r="C45" s="2">
@@ -2007,20 +2007,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2233,6 +2233,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2245,14 +2253,6 @@
     <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
